--- a/output_timetable.xlsx
+++ b/output_timetable.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
+    <sheet name="teachers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4630" uniqueCount="226">
   <si>
     <t>Матем</t>
   </si>
@@ -411,6 +412,288 @@
   <si>
     <t>Субб.</t>
   </si>
+  <si>
+    <t>А.А.Задорин</t>
+  </si>
+  <si>
+    <t>А.В.Александрова</t>
+  </si>
+  <si>
+    <t>Аксенов К.Н.</t>
+  </si>
+  <si>
+    <t>Бабаева Е.С.</t>
+  </si>
+  <si>
+    <t>Бабаева М.И.</t>
+  </si>
+  <si>
+    <t>Бабаева С.Я.</t>
+  </si>
+  <si>
+    <t>Базарова М.Ю.</t>
+  </si>
+  <si>
+    <t>Батракова Л.В.</t>
+  </si>
+  <si>
+    <t>Бреслав Л.А.</t>
+  </si>
+  <si>
+    <t>В.Р.Агадулин</t>
+  </si>
+  <si>
+    <t>Васильева И.С.</t>
+  </si>
+  <si>
+    <t>Васильева М.Ю.</t>
+  </si>
+  <si>
+    <t>Васильева Т.Г.</t>
+  </si>
+  <si>
+    <t>Волгин О.А.</t>
+  </si>
+  <si>
+    <t>Воробьев А.Ю.</t>
+  </si>
+  <si>
+    <t>Головин А.Н.</t>
+  </si>
+  <si>
+    <t>Грачев Г.П.</t>
+  </si>
+  <si>
+    <t>Грачева О.Ю.</t>
+  </si>
+  <si>
+    <t>Гребенюк А.В.</t>
+  </si>
+  <si>
+    <t>Гурьянов И.А.</t>
+  </si>
+  <si>
+    <t>Дроздова Н.В.</t>
+  </si>
+  <si>
+    <t>Дружинина М.В.</t>
+  </si>
+  <si>
+    <t>10-8</t>
+  </si>
+  <si>
+    <t>Евлашев И.Ю.</t>
+  </si>
+  <si>
+    <t>Житомирский М.С.</t>
+  </si>
+  <si>
+    <t>Захаров В.Е.</t>
+  </si>
+  <si>
+    <t>Захарова В.Г.</t>
+  </si>
+  <si>
+    <t>Захарова Л.С.</t>
+  </si>
+  <si>
+    <t>Захарова Т.М.</t>
+  </si>
+  <si>
+    <t>Капля М.В.</t>
+  </si>
+  <si>
+    <t>Карачинский Е.Я.</t>
+  </si>
+  <si>
+    <t>Кастрель В.Д.</t>
+  </si>
+  <si>
+    <t>Клюнин А.О.</t>
+  </si>
+  <si>
+    <t>Кобушкина М.В.</t>
+  </si>
+  <si>
+    <t>Короткевич М.А.</t>
+  </si>
+  <si>
+    <t>Кузина Н.В.</t>
+  </si>
+  <si>
+    <t>Кулагина Л.Б.</t>
+  </si>
+  <si>
+    <t>Кумачева Н.К.</t>
+  </si>
+  <si>
+    <t>Лазарева Н.В.</t>
+  </si>
+  <si>
+    <t>Левентуева М.А.</t>
+  </si>
+  <si>
+    <t>Лейбсон К.Л.</t>
+  </si>
+  <si>
+    <t>М.В.Амфилохиева</t>
+  </si>
+  <si>
+    <t>Макарова И.Н.</t>
+  </si>
+  <si>
+    <t>Макарова М.Д.</t>
+  </si>
+  <si>
+    <t>Маркушев Д.С.</t>
+  </si>
+  <si>
+    <t>Мартемьянова Т.Ю.</t>
+  </si>
+  <si>
+    <t>Матросова Е.Н.</t>
+  </si>
+  <si>
+    <t>Меленевская М.Т.</t>
+  </si>
+  <si>
+    <t>Мигрин В.В.</t>
+  </si>
+  <si>
+    <t>Михеев Д.С.</t>
+  </si>
+  <si>
+    <t>Мышкова О.Е.</t>
+  </si>
+  <si>
+    <t>Никифорова Н.М.</t>
+  </si>
+  <si>
+    <t>Орел В.В.</t>
+  </si>
+  <si>
+    <t>П.Д.Алекса ндров</t>
+  </si>
+  <si>
+    <t>Павлов Д.А.</t>
+  </si>
+  <si>
+    <t>Петрова С.А.</t>
+  </si>
+  <si>
+    <t>Полякова Т.Н.</t>
+  </si>
+  <si>
+    <t>Попов С.П.</t>
+  </si>
+  <si>
+    <t>Пратусевич М.Я.</t>
+  </si>
+  <si>
+    <t>Разумец В.В.</t>
+  </si>
+  <si>
+    <t>Раппопорт Р.В.</t>
+  </si>
+  <si>
+    <t>Рафальская А.В.</t>
+  </si>
+  <si>
+    <t>Рахимова А.И.</t>
+  </si>
+  <si>
+    <t>Румянцев Е.А.</t>
+  </si>
+  <si>
+    <t>Савич И.Л.</t>
+  </si>
+  <si>
+    <t>Селиванова И.В.</t>
+  </si>
+  <si>
+    <t>Селякова М.В.</t>
+  </si>
+  <si>
+    <t>Сердакова Л.А.</t>
+  </si>
+  <si>
+    <t>Смирнова Л.Н.</t>
+  </si>
+  <si>
+    <t>Соколова Л.В.</t>
+  </si>
+  <si>
+    <t>Соломин В.Н.</t>
+  </si>
+  <si>
+    <t>Сугоняко Л.А.</t>
+  </si>
+  <si>
+    <t>Суслина М.Е.</t>
+  </si>
+  <si>
+    <t>Тарасова А.А.</t>
+  </si>
+  <si>
+    <t>Тимофеев А.С.</t>
+  </si>
+  <si>
+    <t>Тихомирова Н.Б.</t>
+  </si>
+  <si>
+    <t>Тыртов Н.Н.</t>
+  </si>
+  <si>
+    <t>Ушаков Д.М.</t>
+  </si>
+  <si>
+    <t>Филатов Е.К.</t>
+  </si>
+  <si>
+    <t>Филиппов С.А.</t>
+  </si>
+  <si>
+    <t>Франк В.И.</t>
+  </si>
+  <si>
+    <t>Харитонов А.Д.</t>
+  </si>
+  <si>
+    <t>Холодова А.В.</t>
+  </si>
+  <si>
+    <t>Чихачев К.Б.</t>
+  </si>
+  <si>
+    <t>Шагай М.А.</t>
+  </si>
+  <si>
+    <t>Шилов В.И.</t>
+  </si>
+  <si>
+    <t>Широков А.А.</t>
+  </si>
+  <si>
+    <t>Юлку С.В.</t>
+  </si>
+  <si>
+    <t>Ядова Я.Г.</t>
+  </si>
+  <si>
+    <t>Понедельник</t>
+  </si>
+  <si>
+    <t>Вторник</t>
+  </si>
+  <si>
+    <t>Четверг</t>
+  </si>
+  <si>
+    <t>Пятница</t>
+  </si>
+  <si>
+    <t>Суббота</t>
+  </si>
 </sst>
 </file>
 
@@ -441,27 +724,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,10 +751,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -888,208 +1155,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:EB50"/>
+  <dimension ref="B2:EB50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="2.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:132" s="1" customFormat="1" ht="58" customHeight="1">
-      <c r="E2" s="2" t="s">
+    <row r="2" spans="2:132">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2" t="s">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2" t="s">
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2" t="s">
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2" t="s">
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2" t="s">
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2" t="s">
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2" t="s">
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AX2" s="2"/>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2" t="s">
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2" t="s">
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2" t="s">
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2" t="s">
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2" t="s">
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
-      <c r="BU2" s="2" t="s">
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="2" t="s">
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BZ2" s="2"/>
-      <c r="CA2" s="2"/>
-      <c r="CB2" s="2"/>
-      <c r="CC2" s="2" t="s">
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CD2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CF2" s="2"/>
-      <c r="CG2" s="2" t="s">
+      <c r="CD2" s="1"/>
+      <c r="CE2" s="1"/>
+      <c r="CF2" s="1"/>
+      <c r="CG2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CH2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2"/>
-      <c r="CK2" s="2" t="s">
+      <c r="CH2" s="1"/>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="1"/>
+      <c r="CK2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CL2" s="2"/>
-      <c r="CM2" s="2"/>
-      <c r="CN2" s="2"/>
-      <c r="CO2" s="2" t="s">
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="1"/>
+      <c r="CN2" s="1"/>
+      <c r="CO2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CP2" s="2"/>
-      <c r="CQ2" s="2"/>
-      <c r="CR2" s="2"/>
-      <c r="CS2" s="2" t="s">
+      <c r="CP2" s="1"/>
+      <c r="CQ2" s="1"/>
+      <c r="CR2" s="1"/>
+      <c r="CS2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CT2" s="2"/>
-      <c r="CU2" s="2"/>
-      <c r="CV2" s="2"/>
-      <c r="CW2" s="2" t="s">
+      <c r="CT2" s="1"/>
+      <c r="CU2" s="1"/>
+      <c r="CV2" s="1"/>
+      <c r="CW2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CX2" s="2"/>
-      <c r="CY2" s="2"/>
-      <c r="CZ2" s="2"/>
-      <c r="DA2" s="2" t="s">
+      <c r="CX2" s="1"/>
+      <c r="CY2" s="1"/>
+      <c r="CZ2" s="1"/>
+      <c r="DA2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DB2" s="2"/>
-      <c r="DC2" s="2"/>
-      <c r="DD2" s="2"/>
-      <c r="DE2" s="2" t="s">
+      <c r="DB2" s="1"/>
+      <c r="DC2" s="1"/>
+      <c r="DD2" s="1"/>
+      <c r="DE2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DF2" s="2"/>
-      <c r="DG2" s="2"/>
-      <c r="DH2" s="2"/>
-      <c r="DI2" s="2" t="s">
+      <c r="DF2" s="1"/>
+      <c r="DG2" s="1"/>
+      <c r="DH2" s="1"/>
+      <c r="DI2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DJ2" s="2"/>
-      <c r="DK2" s="2"/>
-      <c r="DL2" s="2"/>
-      <c r="DM2" s="2" t="s">
+      <c r="DJ2" s="1"/>
+      <c r="DK2" s="1"/>
+      <c r="DL2" s="1"/>
+      <c r="DM2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DN2" s="2"/>
-      <c r="DO2" s="2"/>
-      <c r="DP2" s="2"/>
-      <c r="DQ2" s="2" t="s">
+      <c r="DN2" s="1"/>
+      <c r="DO2" s="1"/>
+      <c r="DP2" s="1"/>
+      <c r="DQ2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DR2" s="2"/>
-      <c r="DS2" s="2"/>
-      <c r="DT2" s="2"/>
-      <c r="DU2" s="2" t="s">
+      <c r="DR2" s="1"/>
+      <c r="DS2" s="1"/>
+      <c r="DT2" s="1"/>
+      <c r="DU2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="DV2" s="2"/>
-      <c r="DW2" s="2"/>
-      <c r="DX2" s="2"/>
-      <c r="DY2" s="2" t="s">
+      <c r="DV2" s="1"/>
+      <c r="DW2" s="1"/>
+      <c r="DX2" s="1"/>
+      <c r="DY2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="DZ2" s="2"/>
-      <c r="EA2" s="2"/>
-      <c r="EB2" s="2"/>
+      <c r="DZ2" s="1"/>
+      <c r="EA2" s="1"/>
+      <c r="EB2" s="1"/>
     </row>
     <row r="3" spans="2:132">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C3" t="s">
@@ -1106,7 +1377,7 @@
       </c>
     </row>
     <row r="4" spans="2:132">
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>112</v>
       </c>
@@ -1337,7 +1608,7 @@
       </c>
     </row>
     <row r="5" spans="2:132">
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>114</v>
       </c>
@@ -1574,7 +1845,7 @@
       </c>
     </row>
     <row r="6" spans="2:132">
-      <c r="B6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="C6" t="s">
         <v>116</v>
       </c>
@@ -1817,7 +2088,7 @@
       </c>
     </row>
     <row r="7" spans="2:132">
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
       <c r="C7" t="s">
         <v>118</v>
       </c>
@@ -2060,7 +2331,7 @@
       </c>
     </row>
     <row r="8" spans="2:132">
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
       <c r="C8" t="s">
         <v>120</v>
       </c>
@@ -2303,7 +2574,7 @@
       </c>
     </row>
     <row r="9" spans="2:132">
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
       <c r="C9" t="s">
         <v>122</v>
       </c>
@@ -2546,7 +2817,7 @@
       </c>
     </row>
     <row r="10" spans="2:132">
-      <c r="B10" s="2"/>
+      <c r="B10" s="1"/>
       <c r="C10" t="s">
         <v>124</v>
       </c>
@@ -2561,7 +2832,7 @@
       </c>
     </row>
     <row r="11" spans="2:132">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C11" t="s">
@@ -2584,7 +2855,7 @@
       </c>
     </row>
     <row r="12" spans="2:132">
-      <c r="B12" s="2"/>
+      <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>112</v>
       </c>
@@ -2827,7 +3098,7 @@
       </c>
     </row>
     <row r="13" spans="2:132">
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
       <c r="C13" t="s">
         <v>114</v>
       </c>
@@ -3070,7 +3341,7 @@
       </c>
     </row>
     <row r="14" spans="2:132">
-      <c r="B14" s="2"/>
+      <c r="B14" s="1"/>
       <c r="C14" t="s">
         <v>116</v>
       </c>
@@ -3343,7 +3614,7 @@
       </c>
     </row>
     <row r="15" spans="2:132">
-      <c r="B15" s="2"/>
+      <c r="B15" s="1"/>
       <c r="C15" t="s">
         <v>118</v>
       </c>
@@ -3622,7 +3893,7 @@
       </c>
     </row>
     <row r="16" spans="2:132">
-      <c r="B16" s="2"/>
+      <c r="B16" s="1"/>
       <c r="C16" t="s">
         <v>120</v>
       </c>
@@ -3889,7 +4160,7 @@
       </c>
     </row>
     <row r="17" spans="2:130">
-      <c r="B17" s="2"/>
+      <c r="B17" s="1"/>
       <c r="C17" t="s">
         <v>122</v>
       </c>
@@ -4150,7 +4421,7 @@
       </c>
     </row>
     <row r="18" spans="2:130">
-      <c r="B18" s="2"/>
+      <c r="B18" s="1"/>
       <c r="C18" t="s">
         <v>124</v>
       </c>
@@ -4177,7 +4448,7 @@
       </c>
     </row>
     <row r="19" spans="2:130">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C19" t="s">
@@ -4194,7 +4465,7 @@
       </c>
     </row>
     <row r="20" spans="2:130">
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
       <c r="C20" t="s">
         <v>112</v>
       </c>
@@ -4407,7 +4678,7 @@
       </c>
     </row>
     <row r="21" spans="2:130">
-      <c r="B21" s="2"/>
+      <c r="B21" s="1"/>
       <c r="C21" t="s">
         <v>114</v>
       </c>
@@ -4614,7 +4885,7 @@
       </c>
     </row>
     <row r="22" spans="2:130">
-      <c r="B22" s="2"/>
+      <c r="B22" s="1"/>
       <c r="C22" t="s">
         <v>116</v>
       </c>
@@ -4827,7 +5098,7 @@
       </c>
     </row>
     <row r="23" spans="2:130">
-      <c r="B23" s="2"/>
+      <c r="B23" s="1"/>
       <c r="C23" t="s">
         <v>118</v>
       </c>
@@ -5046,7 +5317,7 @@
       </c>
     </row>
     <row r="24" spans="2:130">
-      <c r="B24" s="2"/>
+      <c r="B24" s="1"/>
       <c r="C24" t="s">
         <v>120</v>
       </c>
@@ -5295,7 +5566,7 @@
       </c>
     </row>
     <row r="25" spans="2:130">
-      <c r="B25" s="2"/>
+      <c r="B25" s="1"/>
       <c r="C25" t="s">
         <v>122</v>
       </c>
@@ -5532,7 +5803,7 @@
       </c>
     </row>
     <row r="26" spans="2:130">
-      <c r="B26" s="2"/>
+      <c r="B26" s="1"/>
       <c r="C26" t="s">
         <v>124</v>
       </c>
@@ -5553,7 +5824,7 @@
       </c>
     </row>
     <row r="27" spans="2:130">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C27" t="s">
@@ -5576,7 +5847,7 @@
       </c>
     </row>
     <row r="28" spans="2:130">
-      <c r="B28" s="2"/>
+      <c r="B28" s="1"/>
       <c r="C28" t="s">
         <v>112</v>
       </c>
@@ -5819,7 +6090,7 @@
       </c>
     </row>
     <row r="29" spans="2:130">
-      <c r="B29" s="2"/>
+      <c r="B29" s="1"/>
       <c r="C29" t="s">
         <v>114</v>
       </c>
@@ -6068,7 +6339,7 @@
       </c>
     </row>
     <row r="30" spans="2:130">
-      <c r="B30" s="2"/>
+      <c r="B30" s="1"/>
       <c r="C30" t="s">
         <v>116</v>
       </c>
@@ -6317,7 +6588,7 @@
       </c>
     </row>
     <row r="31" spans="2:130">
-      <c r="B31" s="2"/>
+      <c r="B31" s="1"/>
       <c r="C31" t="s">
         <v>118</v>
       </c>
@@ -6566,7 +6837,7 @@
       </c>
     </row>
     <row r="32" spans="2:130">
-      <c r="B32" s="2"/>
+      <c r="B32" s="1"/>
       <c r="C32" t="s">
         <v>120</v>
       </c>
@@ -6791,7 +7062,7 @@
       </c>
     </row>
     <row r="33" spans="2:132">
-      <c r="B33" s="2"/>
+      <c r="B33" s="1"/>
       <c r="C33" t="s">
         <v>122</v>
       </c>
@@ -7016,7 +7287,7 @@
       </c>
     </row>
     <row r="34" spans="2:132">
-      <c r="B34" s="2"/>
+      <c r="B34" s="1"/>
       <c r="C34" t="s">
         <v>124</v>
       </c>
@@ -7043,7 +7314,7 @@
       </c>
     </row>
     <row r="35" spans="2:132">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C35" t="s">
@@ -7060,7 +7331,7 @@
       </c>
     </row>
     <row r="36" spans="2:132">
-      <c r="B36" s="2"/>
+      <c r="B36" s="1"/>
       <c r="C36" t="s">
         <v>112</v>
       </c>
@@ -7297,7 +7568,7 @@
       </c>
     </row>
     <row r="37" spans="2:132">
-      <c r="B37" s="2"/>
+      <c r="B37" s="1"/>
       <c r="C37" t="s">
         <v>114</v>
       </c>
@@ -7558,7 +7829,7 @@
       </c>
     </row>
     <row r="38" spans="2:132">
-      <c r="B38" s="2"/>
+      <c r="B38" s="1"/>
       <c r="C38" t="s">
         <v>116</v>
       </c>
@@ -7813,7 +8084,7 @@
       </c>
     </row>
     <row r="39" spans="2:132">
-      <c r="B39" s="2"/>
+      <c r="B39" s="1"/>
       <c r="C39" t="s">
         <v>118</v>
       </c>
@@ -8068,7 +8339,7 @@
       </c>
     </row>
     <row r="40" spans="2:132">
-      <c r="B40" s="2"/>
+      <c r="B40" s="1"/>
       <c r="C40" t="s">
         <v>120</v>
       </c>
@@ -8323,7 +8594,7 @@
       </c>
     </row>
     <row r="41" spans="2:132">
-      <c r="B41" s="2"/>
+      <c r="B41" s="1"/>
       <c r="C41" t="s">
         <v>122</v>
       </c>
@@ -8560,7 +8831,7 @@
       </c>
     </row>
     <row r="42" spans="2:132">
-      <c r="B42" s="2"/>
+      <c r="B42" s="1"/>
       <c r="C42" t="s">
         <v>124</v>
       </c>
@@ -8581,7 +8852,7 @@
       </c>
     </row>
     <row r="43" spans="2:132">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C43" t="s">
@@ -8598,7 +8869,7 @@
       </c>
     </row>
     <row r="44" spans="2:132">
-      <c r="B44" s="2"/>
+      <c r="B44" s="1"/>
       <c r="C44" t="s">
         <v>112</v>
       </c>
@@ -8805,7 +9076,7 @@
       </c>
     </row>
     <row r="45" spans="2:132">
-      <c r="B45" s="2"/>
+      <c r="B45" s="1"/>
       <c r="C45" t="s">
         <v>114</v>
       </c>
@@ -9024,7 +9295,7 @@
       </c>
     </row>
     <row r="46" spans="2:132">
-      <c r="B46" s="2"/>
+      <c r="B46" s="1"/>
       <c r="C46" t="s">
         <v>116</v>
       </c>
@@ -9273,7 +9544,7 @@
       </c>
     </row>
     <row r="47" spans="2:132">
-      <c r="B47" s="2"/>
+      <c r="B47" s="1"/>
       <c r="C47" t="s">
         <v>118</v>
       </c>
@@ -9528,7 +9799,7 @@
       </c>
     </row>
     <row r="48" spans="2:132">
-      <c r="B48" s="2"/>
+      <c r="B48" s="1"/>
       <c r="C48" t="s">
         <v>120</v>
       </c>
@@ -9741,7 +10012,7 @@
       </c>
     </row>
     <row r="49" spans="2:132">
-      <c r="B49" s="2"/>
+      <c r="B49" s="1"/>
       <c r="C49" t="s">
         <v>122</v>
       </c>
@@ -9924,7 +10195,7 @@
       </c>
     </row>
     <row r="50" spans="2:132">
-      <c r="B50" s="2"/>
+      <c r="B50" s="1"/>
       <c r="C50" t="s">
         <v>124</v>
       </c>
@@ -19063,4 +19334,5483 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:AW91"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="51" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:49">
+      <c r="B2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+    </row>
+    <row r="3" spans="1:49">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>6</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>6</v>
+      </c>
+      <c r="Y3">
+        <v>7</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>3</v>
+      </c>
+      <c r="AD3">
+        <v>4</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+      <c r="AF3">
+        <v>6</v>
+      </c>
+      <c r="AG3">
+        <v>7</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>3</v>
+      </c>
+      <c r="AL3">
+        <v>4</v>
+      </c>
+      <c r="AM3">
+        <v>5</v>
+      </c>
+      <c r="AN3">
+        <v>6</v>
+      </c>
+      <c r="AO3">
+        <v>7</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>2</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>4</v>
+      </c>
+      <c r="AU3">
+        <v>5</v>
+      </c>
+      <c r="AV3">
+        <v>6</v>
+      </c>
+      <c r="AW3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8" t="s">
+        <v>90</v>
+      </c>
+      <c r="U8" t="s">
+        <v>94</v>
+      </c>
+      <c r="W8" t="s">
+        <v>96</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" t="s">
+        <v>103</v>
+      </c>
+      <c r="W10" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49">
+      <c r="A11" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="W11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+      <c r="T12" t="s">
+        <v>96</v>
+      </c>
+      <c r="U12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" t="s">
+        <v>74</v>
+      </c>
+      <c r="U13" t="s">
+        <v>108</v>
+      </c>
+      <c r="V13" t="s">
+        <v>108</v>
+      </c>
+      <c r="W13" t="s">
+        <v>108</v>
+      </c>
+      <c r="X13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L14" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" t="s">
+        <v>109</v>
+      </c>
+      <c r="S14" t="s">
+        <v>90</v>
+      </c>
+      <c r="T14" t="s">
+        <v>90</v>
+      </c>
+      <c r="U14" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="S15" t="s">
+        <v>98</v>
+      </c>
+      <c r="T15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49">
+      <c r="A16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" t="s">
+        <v>103</v>
+      </c>
+      <c r="M16" t="s">
+        <v>105</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
+        <v>42</v>
+      </c>
+      <c r="S16" t="s">
+        <v>42</v>
+      </c>
+      <c r="V16" t="s">
+        <v>45</v>
+      </c>
+      <c r="W16" t="s">
+        <v>46</v>
+      </c>
+      <c r="X16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
+      </c>
+      <c r="S17" t="s">
+        <v>69</v>
+      </c>
+      <c r="T17" t="s">
+        <v>79</v>
+      </c>
+      <c r="U17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" t="s">
+        <v>93</v>
+      </c>
+      <c r="S19" t="s">
+        <v>103</v>
+      </c>
+      <c r="T19" t="s">
+        <v>103</v>
+      </c>
+      <c r="U19" t="s">
+        <v>93</v>
+      </c>
+      <c r="V19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" t="s">
+        <v>74</v>
+      </c>
+      <c r="S20" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" t="s">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s">
+        <v>96</v>
+      </c>
+      <c r="X20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" t="s">
+        <v>105</v>
+      </c>
+      <c r="O21" t="s">
+        <v>101</v>
+      </c>
+      <c r="S21" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" t="s">
+        <v>101</v>
+      </c>
+      <c r="V21" t="s">
+        <v>101</v>
+      </c>
+      <c r="X21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48">
+      <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="S22" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" t="s">
+        <v>48</v>
+      </c>
+      <c r="V22" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+      <c r="L23" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" t="s">
+        <v>93</v>
+      </c>
+      <c r="N24" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" t="s">
+        <v>99</v>
+      </c>
+      <c r="P24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48">
+      <c r="A25" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" t="s">
+        <v>99</v>
+      </c>
+      <c r="M25" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" t="s">
+        <v>97</v>
+      </c>
+      <c r="S25" t="s">
+        <v>99</v>
+      </c>
+      <c r="T25" t="s">
+        <v>99</v>
+      </c>
+      <c r="U25" t="s">
+        <v>99</v>
+      </c>
+      <c r="V25" t="s">
+        <v>99</v>
+      </c>
+      <c r="W25" t="s">
+        <v>154</v>
+      </c>
+      <c r="X25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" t="s">
+        <v>83</v>
+      </c>
+      <c r="N27" t="s">
+        <v>83</v>
+      </c>
+      <c r="W27" t="s">
+        <v>83</v>
+      </c>
+      <c r="X27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" t="s">
+        <v>90</v>
+      </c>
+      <c r="K28" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" t="s">
+        <v>154</v>
+      </c>
+      <c r="M28" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" t="s">
+        <v>26</v>
+      </c>
+      <c r="P28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>101</v>
+      </c>
+      <c r="R28" t="s">
+        <v>105</v>
+      </c>
+      <c r="S28" t="s">
+        <v>105</v>
+      </c>
+      <c r="T28" t="s">
+        <v>69</v>
+      </c>
+      <c r="U28" t="s">
+        <v>69</v>
+      </c>
+      <c r="V28" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" t="s">
+        <v>56</v>
+      </c>
+      <c r="X28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" t="s">
+        <v>107</v>
+      </c>
+      <c r="N29" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" t="s">
+        <v>107</v>
+      </c>
+      <c r="U29" t="s">
+        <v>107</v>
+      </c>
+      <c r="V29" t="s">
+        <v>107</v>
+      </c>
+      <c r="W29" t="s">
+        <v>154</v>
+      </c>
+      <c r="X29" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="P30" t="s">
+        <v>83</v>
+      </c>
+      <c r="S30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+      <c r="M31" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" t="s">
+        <v>48</v>
+      </c>
+      <c r="P31" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" t="s">
+        <v>90</v>
+      </c>
+      <c r="L32" t="s">
+        <v>104</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" t="s">
+        <v>26</v>
+      </c>
+      <c r="P32" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="K33" t="s">
+        <v>105</v>
+      </c>
+      <c r="L33" t="s">
+        <v>105</v>
+      </c>
+      <c r="N33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" t="s">
+        <v>94</v>
+      </c>
+      <c r="S33" t="s">
+        <v>94</v>
+      </c>
+      <c r="T33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" t="s">
+        <v>40</v>
+      </c>
+      <c r="S34" t="s">
+        <v>40</v>
+      </c>
+      <c r="V34" t="s">
+        <v>94</v>
+      </c>
+      <c r="W34" t="s">
+        <v>94</v>
+      </c>
+      <c r="X34" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48">
+      <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K35" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" t="s">
+        <v>94</v>
+      </c>
+      <c r="M35" t="s">
+        <v>74</v>
+      </c>
+      <c r="N35" t="s">
+        <v>74</v>
+      </c>
+      <c r="W35" t="s">
+        <v>94</v>
+      </c>
+      <c r="X35" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" t="s">
+        <v>109</v>
+      </c>
+      <c r="H36" t="s">
+        <v>109</v>
+      </c>
+      <c r="S36" t="s">
+        <v>99</v>
+      </c>
+      <c r="T36" t="s">
+        <v>99</v>
+      </c>
+      <c r="U36" t="s">
+        <v>99</v>
+      </c>
+      <c r="V36" t="s">
+        <v>99</v>
+      </c>
+      <c r="W36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>99</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" t="s">
+        <v>97</v>
+      </c>
+      <c r="M37" t="s">
+        <v>74</v>
+      </c>
+      <c r="N37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" t="s">
+        <v>97</v>
+      </c>
+      <c r="S37" t="s">
+        <v>97</v>
+      </c>
+      <c r="T37" t="s">
+        <v>97</v>
+      </c>
+      <c r="U37" t="s">
+        <v>74</v>
+      </c>
+      <c r="V37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="K38" t="s">
+        <v>86</v>
+      </c>
+      <c r="L38" t="s">
+        <v>86</v>
+      </c>
+      <c r="M38" t="s">
+        <v>69</v>
+      </c>
+      <c r="N38" t="s">
+        <v>69</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+      <c r="S38" t="s">
+        <v>106</v>
+      </c>
+      <c r="T38" t="s">
+        <v>86</v>
+      </c>
+      <c r="U38" t="s">
+        <v>86</v>
+      </c>
+      <c r="V38" t="s">
+        <v>69</v>
+      </c>
+      <c r="W38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48">
+      <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="M40" t="s">
+        <v>104</v>
+      </c>
+      <c r="N40" t="s">
+        <v>104</v>
+      </c>
+      <c r="O40" t="s">
+        <v>105</v>
+      </c>
+      <c r="P40" t="s">
+        <v>105</v>
+      </c>
+      <c r="U40" t="s">
+        <v>104</v>
+      </c>
+      <c r="V40" t="s">
+        <v>104</v>
+      </c>
+      <c r="W40" t="s">
+        <v>105</v>
+      </c>
+      <c r="X40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="M41" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" t="s">
+        <v>45</v>
+      </c>
+      <c r="S41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48">
+      <c r="A42" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" t="s">
+        <v>154</v>
+      </c>
+      <c r="L42" t="s">
+        <v>90</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42" t="s">
+        <v>26</v>
+      </c>
+      <c r="O42" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" t="s">
+        <v>6</v>
+      </c>
+      <c r="S42" t="s">
+        <v>96</v>
+      </c>
+      <c r="T42" t="s">
+        <v>98</v>
+      </c>
+      <c r="V42" t="s">
+        <v>154</v>
+      </c>
+      <c r="X42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48">
+      <c r="A43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" t="s">
+        <v>48</v>
+      </c>
+      <c r="O43" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" t="s">
+        <v>48</v>
+      </c>
+      <c r="U43" t="s">
+        <v>48</v>
+      </c>
+      <c r="V43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48">
+      <c r="A45" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" t="s">
+        <v>98</v>
+      </c>
+      <c r="K45" t="s">
+        <v>98</v>
+      </c>
+      <c r="M45" t="s">
+        <v>49</v>
+      </c>
+      <c r="N45" t="s">
+        <v>49</v>
+      </c>
+      <c r="S45" t="s">
+        <v>49</v>
+      </c>
+      <c r="T45" t="s">
+        <v>49</v>
+      </c>
+      <c r="U45" t="s">
+        <v>98</v>
+      </c>
+      <c r="V45" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" t="s">
+        <v>104</v>
+      </c>
+      <c r="M46" t="s">
+        <v>103</v>
+      </c>
+      <c r="N46" t="s">
+        <v>103</v>
+      </c>
+      <c r="O46" t="s">
+        <v>42</v>
+      </c>
+      <c r="P46" t="s">
+        <v>42</v>
+      </c>
+      <c r="S46" t="s">
+        <v>42</v>
+      </c>
+      <c r="T46" t="s">
+        <v>40</v>
+      </c>
+      <c r="U46" t="s">
+        <v>26</v>
+      </c>
+      <c r="V46" t="s">
+        <v>26</v>
+      </c>
+      <c r="W46" t="s">
+        <v>31</v>
+      </c>
+      <c r="X46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48">
+      <c r="A47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" t="s">
+        <v>56</v>
+      </c>
+      <c r="M47" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" t="s">
+        <v>42</v>
+      </c>
+      <c r="O47" t="s">
+        <v>35</v>
+      </c>
+      <c r="P47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48">
+      <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" t="s">
+        <v>93</v>
+      </c>
+      <c r="K48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" t="s">
+        <v>69</v>
+      </c>
+      <c r="M48" t="s">
+        <v>69</v>
+      </c>
+      <c r="N48" t="s">
+        <v>69</v>
+      </c>
+      <c r="O48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" t="s">
+        <v>31</v>
+      </c>
+      <c r="O49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P49" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48">
+      <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="W50" t="s">
+        <v>107</v>
+      </c>
+      <c r="X50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+      <c r="U51" t="s">
+        <v>6</v>
+      </c>
+      <c r="V51" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48">
+      <c r="A52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s">
+        <v>79</v>
+      </c>
+      <c r="K52" t="s">
+        <v>79</v>
+      </c>
+      <c r="L52" t="s">
+        <v>79</v>
+      </c>
+      <c r="O52" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" t="s">
+        <v>35</v>
+      </c>
+      <c r="W52" t="s">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48">
+      <c r="A53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" t="s">
+        <v>48</v>
+      </c>
+      <c r="S53" t="s">
+        <v>45</v>
+      </c>
+      <c r="T53" t="s">
+        <v>45</v>
+      </c>
+      <c r="U53" t="s">
+        <v>42</v>
+      </c>
+      <c r="V53" t="s">
+        <v>31</v>
+      </c>
+      <c r="X53" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>49</v>
+      </c>
+      <c r="U54" t="s">
+        <v>46</v>
+      </c>
+      <c r="V54" t="s">
+        <v>35</v>
+      </c>
+      <c r="W54" t="s">
+        <v>40</v>
+      </c>
+      <c r="X54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+      <c r="S55" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" t="s">
+        <v>31</v>
+      </c>
+      <c r="U55" t="s">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48">
+      <c r="A56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN56" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48">
+      <c r="A57" t="s">
+        <v>186</v>
+      </c>
+      <c r="G57" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" t="s">
+        <v>154</v>
+      </c>
+      <c r="O57" t="s">
+        <v>154</v>
+      </c>
+      <c r="P57" t="s">
+        <v>154</v>
+      </c>
+      <c r="T57" t="s">
+        <v>154</v>
+      </c>
+      <c r="U57" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB57" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48">
+      <c r="A58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>154</v>
+      </c>
+      <c r="G58" t="s">
+        <v>105</v>
+      </c>
+      <c r="K58" t="s">
+        <v>104</v>
+      </c>
+      <c r="L58" t="s">
+        <v>108</v>
+      </c>
+      <c r="M58" t="s">
+        <v>94</v>
+      </c>
+      <c r="O58" t="s">
+        <v>109</v>
+      </c>
+      <c r="S58" t="s">
+        <v>93</v>
+      </c>
+      <c r="T58" t="s">
+        <v>106</v>
+      </c>
+      <c r="U58" t="s">
+        <v>83</v>
+      </c>
+      <c r="V58" t="s">
+        <v>90</v>
+      </c>
+      <c r="W58" t="s">
+        <v>101</v>
+      </c>
+      <c r="X58" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ58" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48">
+      <c r="A59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" t="s">
+        <v>35</v>
+      </c>
+      <c r="M59" t="s">
+        <v>35</v>
+      </c>
+      <c r="O59" t="s">
+        <v>46</v>
+      </c>
+      <c r="P59" t="s">
+        <v>46</v>
+      </c>
+      <c r="V59" t="s">
+        <v>46</v>
+      </c>
+      <c r="W59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48">
+      <c r="A60" t="s">
+        <v>189</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" t="s">
+        <v>99</v>
+      </c>
+      <c r="K60" t="s">
+        <v>97</v>
+      </c>
+      <c r="L60" t="s">
+        <v>83</v>
+      </c>
+      <c r="M60" t="s">
+        <v>109</v>
+      </c>
+      <c r="N60" t="s">
+        <v>107</v>
+      </c>
+      <c r="O60" t="s">
+        <v>99</v>
+      </c>
+      <c r="P60" t="s">
+        <v>99</v>
+      </c>
+      <c r="S60" t="s">
+        <v>154</v>
+      </c>
+      <c r="U60" t="s">
+        <v>94</v>
+      </c>
+      <c r="W60" t="s">
+        <v>108</v>
+      </c>
+      <c r="X60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN60" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>97</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48">
+      <c r="A61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="M61" t="s">
+        <v>56</v>
+      </c>
+      <c r="N61" t="s">
+        <v>56</v>
+      </c>
+      <c r="O61" t="s">
+        <v>56</v>
+      </c>
+      <c r="P61" t="s">
+        <v>56</v>
+      </c>
+      <c r="T61" t="s">
+        <v>56</v>
+      </c>
+      <c r="U61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48">
+      <c r="A62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" t="s">
+        <v>90</v>
+      </c>
+      <c r="K62" t="s">
+        <v>93</v>
+      </c>
+      <c r="L62" t="s">
+        <v>93</v>
+      </c>
+      <c r="N62" t="s">
+        <v>48</v>
+      </c>
+      <c r="O62" t="s">
+        <v>49</v>
+      </c>
+      <c r="P62" t="s">
+        <v>49</v>
+      </c>
+      <c r="T62" t="s">
+        <v>93</v>
+      </c>
+      <c r="U62" t="s">
+        <v>90</v>
+      </c>
+      <c r="W62" t="s">
+        <v>93</v>
+      </c>
+      <c r="X62" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48">
+      <c r="A63" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s">
+        <v>74</v>
+      </c>
+      <c r="W63" t="s">
+        <v>74</v>
+      </c>
+      <c r="X63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48">
+      <c r="A64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" t="s">
+        <v>90</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="W64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X64" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:48">
+      <c r="A65" t="s">
+        <v>194</v>
+      </c>
+      <c r="E65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" t="s">
+        <v>101</v>
+      </c>
+      <c r="O65" t="s">
+        <v>74</v>
+      </c>
+      <c r="P65" t="s">
+        <v>74</v>
+      </c>
+      <c r="V65" t="s">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ65" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN65" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:48">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" t="s">
+        <v>105</v>
+      </c>
+      <c r="K66" t="s">
+        <v>101</v>
+      </c>
+      <c r="M66" t="s">
+        <v>106</v>
+      </c>
+      <c r="N66" t="s">
+        <v>106</v>
+      </c>
+      <c r="P66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN66" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48">
+      <c r="A67" t="s">
+        <v>196</v>
+      </c>
+      <c r="O67" t="s">
+        <v>104</v>
+      </c>
+      <c r="P67" t="s">
+        <v>104</v>
+      </c>
+      <c r="W67" t="s">
+        <v>104</v>
+      </c>
+      <c r="X67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48">
+      <c r="A68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>26</v>
+      </c>
+      <c r="P68" t="s">
+        <v>26</v>
+      </c>
+      <c r="S68" t="s">
+        <v>26</v>
+      </c>
+      <c r="T68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48">
+      <c r="A69" t="s">
+        <v>198</v>
+      </c>
+      <c r="G69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s">
+        <v>106</v>
+      </c>
+      <c r="S69" t="s">
+        <v>83</v>
+      </c>
+      <c r="T69" t="s">
+        <v>83</v>
+      </c>
+      <c r="W69" t="s">
+        <v>106</v>
+      </c>
+      <c r="X69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48">
+      <c r="A70" t="s">
+        <v>199</v>
+      </c>
+      <c r="M70" t="s">
+        <v>109</v>
+      </c>
+      <c r="N70" t="s">
+        <v>109</v>
+      </c>
+      <c r="O70" t="s">
+        <v>108</v>
+      </c>
+      <c r="P70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ70" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK70" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48">
+      <c r="A71" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" t="s">
+        <v>154</v>
+      </c>
+      <c r="F71" t="s">
+        <v>99</v>
+      </c>
+      <c r="G71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71" t="s">
+        <v>83</v>
+      </c>
+      <c r="S71" t="s">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s">
+        <v>74</v>
+      </c>
+      <c r="V71" t="s">
+        <v>83</v>
+      </c>
+      <c r="W71" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48">
+      <c r="A72" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" t="s">
+        <v>97</v>
+      </c>
+      <c r="G72" t="s">
+        <v>99</v>
+      </c>
+      <c r="K72" t="s">
+        <v>99</v>
+      </c>
+      <c r="L72" t="s">
+        <v>99</v>
+      </c>
+      <c r="M72" t="s">
+        <v>97</v>
+      </c>
+      <c r="N72" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK72" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:48">
+      <c r="A73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" t="s">
+        <v>109</v>
+      </c>
+      <c r="K73" t="s">
+        <v>109</v>
+      </c>
+      <c r="L73" t="s">
+        <v>109</v>
+      </c>
+      <c r="M73" t="s">
+        <v>46</v>
+      </c>
+      <c r="N73" t="s">
+        <v>46</v>
+      </c>
+      <c r="S73" t="s">
+        <v>46</v>
+      </c>
+      <c r="T73" t="s">
+        <v>46</v>
+      </c>
+      <c r="U73" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC73" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE73" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK73" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:48">
+      <c r="A74" t="s">
+        <v>203</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" t="s">
+        <v>42</v>
+      </c>
+      <c r="U74" t="s">
+        <v>35</v>
+      </c>
+      <c r="V74" t="s">
+        <v>42</v>
+      </c>
+      <c r="W74" t="s">
+        <v>42</v>
+      </c>
+      <c r="X74" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE74" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ74" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK74" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN74" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ74" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR74" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:48">
+      <c r="A75" t="s">
+        <v>204</v>
+      </c>
+      <c r="L75" t="s">
+        <v>42</v>
+      </c>
+      <c r="M75" t="s">
+        <v>42</v>
+      </c>
+      <c r="N75" t="s">
+        <v>42</v>
+      </c>
+      <c r="O75" t="s">
+        <v>86</v>
+      </c>
+      <c r="P75" t="s">
+        <v>86</v>
+      </c>
+      <c r="T75" t="s">
+        <v>42</v>
+      </c>
+      <c r="V75" t="s">
+        <v>86</v>
+      </c>
+      <c r="W75" t="s">
+        <v>86</v>
+      </c>
+      <c r="X75" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE75" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN75" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS75" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:48">
+      <c r="A76" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F76" t="s">
+        <v>94</v>
+      </c>
+      <c r="G76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" t="s">
+        <v>98</v>
+      </c>
+      <c r="N76" t="s">
+        <v>154</v>
+      </c>
+      <c r="O76" t="s">
+        <v>90</v>
+      </c>
+      <c r="P76" t="s">
+        <v>90</v>
+      </c>
+      <c r="S76" t="s">
+        <v>35</v>
+      </c>
+      <c r="T76" t="s">
+        <v>35</v>
+      </c>
+      <c r="U76" t="s">
+        <v>31</v>
+      </c>
+      <c r="V76" t="s">
+        <v>97</v>
+      </c>
+      <c r="W76" t="s">
+        <v>98</v>
+      </c>
+      <c r="X76" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ76" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ76" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS76" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT76" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48">
+      <c r="A77" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" t="s">
+        <v>96</v>
+      </c>
+      <c r="F77" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" t="s">
+        <v>103</v>
+      </c>
+      <c r="H77" t="s">
+        <v>103</v>
+      </c>
+      <c r="M77" t="s">
+        <v>96</v>
+      </c>
+      <c r="N77" t="s">
+        <v>96</v>
+      </c>
+      <c r="O77" t="s">
+        <v>96</v>
+      </c>
+      <c r="P77" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE77" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ77" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK77" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN77" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ77" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48">
+      <c r="A78" t="s">
+        <v>207</v>
+      </c>
+      <c r="E78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" t="s">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="U78" t="s">
+        <v>42</v>
+      </c>
+      <c r="V78" t="s">
+        <v>31</v>
+      </c>
+      <c r="W78" t="s">
+        <v>49</v>
+      </c>
+      <c r="X78" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE78" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG78" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ78" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN78" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP78" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>98</v>
+      </c>
+      <c r="AS78" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT78" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48">
+      <c r="A79" t="s">
+        <v>208</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="K79" t="s">
+        <v>26</v>
+      </c>
+      <c r="L79" t="s">
+        <v>26</v>
+      </c>
+      <c r="W79" t="s">
+        <v>26</v>
+      </c>
+      <c r="X79" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS79" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48">
+      <c r="A80" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" t="s">
+        <v>83</v>
+      </c>
+      <c r="E80" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80" t="s">
+        <v>93</v>
+      </c>
+      <c r="G80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H80" t="s">
+        <v>93</v>
+      </c>
+      <c r="W80" t="s">
+        <v>93</v>
+      </c>
+      <c r="X80" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:48">
+      <c r="A81" t="s">
+        <v>210</v>
+      </c>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="K81" t="s">
+        <v>45</v>
+      </c>
+      <c r="L81" t="s">
+        <v>45</v>
+      </c>
+      <c r="M81" t="s">
+        <v>45</v>
+      </c>
+      <c r="N81" t="s">
+        <v>45</v>
+      </c>
+      <c r="P81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE81" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR81" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS81" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV81" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:48">
+      <c r="A82" t="s">
+        <v>211</v>
+      </c>
+      <c r="G82" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" t="s">
+        <v>6</v>
+      </c>
+      <c r="K82" t="s">
+        <v>26</v>
+      </c>
+      <c r="L82" t="s">
+        <v>26</v>
+      </c>
+      <c r="O82" t="s">
+        <v>40</v>
+      </c>
+      <c r="P82" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:48">
+      <c r="A83" t="s">
+        <v>212</v>
+      </c>
+      <c r="E83" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" t="s">
+        <v>90</v>
+      </c>
+      <c r="G83" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s">
+        <v>40</v>
+      </c>
+      <c r="N83" t="s">
+        <v>90</v>
+      </c>
+      <c r="O83" t="s">
+        <v>40</v>
+      </c>
+      <c r="P83" t="s">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s">
+        <v>90</v>
+      </c>
+      <c r="X83" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU83" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV83" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="84" spans="1:48">
+      <c r="A84" t="s">
+        <v>213</v>
+      </c>
+      <c r="C84" t="s">
+        <v>106</v>
+      </c>
+      <c r="D84" t="s">
+        <v>106</v>
+      </c>
+      <c r="G84" t="s">
+        <v>86</v>
+      </c>
+      <c r="H84" t="s">
+        <v>86</v>
+      </c>
+      <c r="K84" t="s">
+        <v>103</v>
+      </c>
+      <c r="L84" t="s">
+        <v>103</v>
+      </c>
+      <c r="M84" t="s">
+        <v>103</v>
+      </c>
+      <c r="N84" t="s">
+        <v>103</v>
+      </c>
+      <c r="O84" t="s">
+        <v>106</v>
+      </c>
+      <c r="P84" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:48">
+      <c r="A85" t="s">
+        <v>214</v>
+      </c>
+      <c r="N85" t="s">
+        <v>35</v>
+      </c>
+      <c r="O85" t="s">
+        <v>98</v>
+      </c>
+      <c r="P85" t="s">
+        <v>98</v>
+      </c>
+      <c r="S85" t="s">
+        <v>154</v>
+      </c>
+      <c r="T85" t="s">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s">
+        <v>26</v>
+      </c>
+      <c r="V85" t="s">
+        <v>26</v>
+      </c>
+      <c r="W85" t="s">
+        <v>31</v>
+      </c>
+      <c r="X85" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD85" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE85" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ85" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK85" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN85" t="s">
+        <v>154</v>
+      </c>
+      <c r="AQ85" t="s">
+        <v>26</v>
+      </c>
+      <c r="AR85" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS85" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>40</v>
+      </c>
+      <c r="AV85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:48">
+      <c r="A86" t="s">
+        <v>215</v>
+      </c>
+      <c r="K86" t="s">
+        <v>45</v>
+      </c>
+      <c r="L86" t="s">
+        <v>45</v>
+      </c>
+      <c r="M86" t="s">
+        <v>56</v>
+      </c>
+      <c r="N86" t="s">
+        <v>56</v>
+      </c>
+      <c r="O86" t="s">
+        <v>56</v>
+      </c>
+      <c r="P86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:48">
+      <c r="A87" t="s">
+        <v>216</v>
+      </c>
+      <c r="K87" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" t="s">
+        <v>31</v>
+      </c>
+      <c r="S87" t="s">
+        <v>31</v>
+      </c>
+      <c r="T87" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ87" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK87" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:48">
+      <c r="A88" t="s">
+        <v>217</v>
+      </c>
+      <c r="K88" t="s">
+        <v>48</v>
+      </c>
+      <c r="L88" t="s">
+        <v>46</v>
+      </c>
+      <c r="N88" t="s">
+        <v>40</v>
+      </c>
+      <c r="O88" t="s">
+        <v>31</v>
+      </c>
+      <c r="P88" t="s">
+        <v>45</v>
+      </c>
+      <c r="U88" t="s">
+        <v>49</v>
+      </c>
+      <c r="V88" t="s">
+        <v>96</v>
+      </c>
+      <c r="W88" t="s">
+        <v>97</v>
+      </c>
+      <c r="X88" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE88" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF88" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK88" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:48">
+      <c r="A89" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
+      </c>
+      <c r="F89" t="s">
+        <v>106</v>
+      </c>
+      <c r="G89" t="s">
+        <v>106</v>
+      </c>
+      <c r="H89" t="s">
+        <v>107</v>
+      </c>
+      <c r="I89" t="s">
+        <v>107</v>
+      </c>
+      <c r="K89" t="s">
+        <v>35</v>
+      </c>
+      <c r="L89" t="s">
+        <v>154</v>
+      </c>
+      <c r="M89" t="s">
+        <v>79</v>
+      </c>
+      <c r="N89" t="s">
+        <v>79</v>
+      </c>
+      <c r="O89" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD89" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE89" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG89" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK89" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP89" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ89" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR89" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS89" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT89" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV89" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:48">
+      <c r="A90" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" t="s">
+        <v>79</v>
+      </c>
+      <c r="K90" t="s">
+        <v>94</v>
+      </c>
+      <c r="L90" t="s">
+        <v>94</v>
+      </c>
+      <c r="M90" t="s">
+        <v>98</v>
+      </c>
+      <c r="N90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ90" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS90" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT90" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU90" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV90" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:48">
+      <c r="A91" t="s">
+        <v>220</v>
+      </c>
+      <c r="C91" t="s">
+        <v>105</v>
+      </c>
+      <c r="D91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91" t="s">
+        <v>101</v>
+      </c>
+      <c r="F91" t="s">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s">
+        <v>69</v>
+      </c>
+      <c r="J91" t="s">
+        <v>93</v>
+      </c>
+      <c r="K91" t="s">
+        <v>83</v>
+      </c>
+      <c r="L91" t="s">
+        <v>56</v>
+      </c>
+      <c r="M91" t="s">
+        <v>154</v>
+      </c>
+      <c r="S91" t="s">
+        <v>107</v>
+      </c>
+      <c r="T91" t="s">
+        <v>94</v>
+      </c>
+      <c r="U91" t="s">
+        <v>97</v>
+      </c>
+      <c r="V91" t="s">
+        <v>109</v>
+      </c>
+      <c r="W91" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD91" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE91" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF91" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG91" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AG2"/>
+    <mergeCell ref="AH2:AO2"/>
+    <mergeCell ref="AP2:AW2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AA2:AF2">
+    <cfRule type="expression" dxfId="4" priority="61">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AF3">
+    <cfRule type="expression" dxfId="6" priority="63">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4:AF4">
+    <cfRule type="expression" dxfId="4" priority="53">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA91:AF91">
+    <cfRule type="expression" dxfId="6" priority="55">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2">
+    <cfRule type="expression" dxfId="1" priority="58">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG2:AG3">
+    <cfRule type="expression" dxfId="7" priority="64">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3">
+    <cfRule type="expression" dxfId="3" priority="60">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG4">
+    <cfRule type="expression" dxfId="1" priority="50">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG5:AG90">
+    <cfRule type="expression" dxfId="7" priority="56">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG91">
+    <cfRule type="expression" dxfId="3" priority="52">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2">
+    <cfRule type="expression" dxfId="0" priority="73">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2:AH3">
+    <cfRule type="expression" dxfId="5" priority="78">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH3">
+    <cfRule type="expression" dxfId="2" priority="75">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH4">
+    <cfRule type="expression" dxfId="0" priority="65">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH5:AH90">
+    <cfRule type="expression" dxfId="5" priority="70">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH91">
+    <cfRule type="expression" dxfId="2" priority="67">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI2:AN2">
+    <cfRule type="expression" dxfId="4" priority="77">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AN3">
+    <cfRule type="expression" dxfId="6" priority="79">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI4:AN4">
+    <cfRule type="expression" dxfId="4" priority="69">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI91:AN91">
+    <cfRule type="expression" dxfId="6" priority="71">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2">
+    <cfRule type="expression" dxfId="1" priority="74">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO2:AO3">
+    <cfRule type="expression" dxfId="7" priority="80">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO3">
+    <cfRule type="expression" dxfId="3" priority="76">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO4">
+    <cfRule type="expression" dxfId="1" priority="66">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO5:AO90">
+    <cfRule type="expression" dxfId="7" priority="72">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO91">
+    <cfRule type="expression" dxfId="3" priority="68">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP2">
+    <cfRule type="expression" dxfId="0" priority="89">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP2:AP3">
+    <cfRule type="expression" dxfId="5" priority="94">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP3">
+    <cfRule type="expression" dxfId="2" priority="91">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP4">
+    <cfRule type="expression" dxfId="0" priority="81">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP5:AP90">
+    <cfRule type="expression" dxfId="5" priority="86">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP91">
+    <cfRule type="expression" dxfId="2" priority="83">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ2:AV2">
+    <cfRule type="expression" dxfId="4" priority="93">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ3:AV3">
+    <cfRule type="expression" dxfId="6" priority="95">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ4:AV4">
+    <cfRule type="expression" dxfId="4" priority="85">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ91:AV91">
+    <cfRule type="expression" dxfId="6" priority="87">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW2">
+    <cfRule type="expression" dxfId="1" priority="90">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW2:AW3">
+    <cfRule type="expression" dxfId="7" priority="96">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW3">
+    <cfRule type="expression" dxfId="3" priority="92">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW4">
+    <cfRule type="expression" dxfId="1" priority="82">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW5:AW90">
+    <cfRule type="expression" dxfId="7" priority="88">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW91">
+    <cfRule type="expression" dxfId="3" priority="84">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="expression" dxfId="5" priority="14">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="expression" dxfId="2" priority="11">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B90">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:H2">
+    <cfRule type="expression" dxfId="4" priority="13">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:H3">
+    <cfRule type="expression" dxfId="6" priority="15">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:H4">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91:H91">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2">
+    <cfRule type="expression" dxfId="1" priority="10">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
+    <cfRule type="expression" dxfId="7" priority="16">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="expression" dxfId="3" priority="12">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I90">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I91">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J3">
+    <cfRule type="expression" dxfId="5" priority="30">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="expression" dxfId="2" priority="27">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J90">
+    <cfRule type="expression" dxfId="5" priority="22">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J91">
+    <cfRule type="expression" dxfId="2" priority="19">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:P2">
+    <cfRule type="expression" dxfId="4" priority="29">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:P3">
+    <cfRule type="expression" dxfId="6" priority="31">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:P4">
+    <cfRule type="expression" dxfId="4" priority="21">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K91:P91">
+    <cfRule type="expression" dxfId="6" priority="23">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2">
+    <cfRule type="expression" dxfId="1" priority="26">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q3">
+    <cfRule type="expression" dxfId="7" priority="32">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3">
+    <cfRule type="expression" dxfId="3" priority="28">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5:Q90">
+    <cfRule type="expression" dxfId="7" priority="24">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q91">
+    <cfRule type="expression" dxfId="3" priority="20">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2">
+    <cfRule type="expression" dxfId="0" priority="41">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R3">
+    <cfRule type="expression" dxfId="5" priority="46">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="expression" dxfId="2" priority="43">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="expression" dxfId="0" priority="33">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5:R90">
+    <cfRule type="expression" dxfId="5" priority="38">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R91">
+    <cfRule type="expression" dxfId="2" priority="35">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:X2">
+    <cfRule type="expression" dxfId="4" priority="45">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:X3">
+    <cfRule type="expression" dxfId="6" priority="47">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4:X4">
+    <cfRule type="expression" dxfId="4" priority="37">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S91:X91">
+    <cfRule type="expression" dxfId="6" priority="39">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2">
+    <cfRule type="expression" dxfId="1" priority="42">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y3">
+    <cfRule type="expression" dxfId="7" priority="48">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3">
+    <cfRule type="expression" dxfId="3" priority="44">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4">
+    <cfRule type="expression" dxfId="1" priority="34">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y5:Y90">
+    <cfRule type="expression" dxfId="7" priority="40">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y91">
+    <cfRule type="expression" dxfId="3" priority="36">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2">
+    <cfRule type="expression" dxfId="0" priority="57">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z2:Z3">
+    <cfRule type="expression" dxfId="5" priority="62">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z3">
+    <cfRule type="expression" dxfId="2" priority="59">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4">
+    <cfRule type="expression" dxfId="0" priority="49">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z5:Z90">
+    <cfRule type="expression" dxfId="5" priority="54">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z91">
+    <cfRule type="expression" dxfId="2" priority="51">
+      <formula>True</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>